--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.618716333333333</v>
+        <v>2.425633666666667</v>
       </c>
       <c r="N2">
-        <v>7.856148999999998</v>
+        <v>7.276901000000001</v>
       </c>
       <c r="O2">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="P2">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
       <c r="Q2">
-        <v>3.842985423086443</v>
+        <v>3.559635193813555</v>
       </c>
       <c r="R2">
-        <v>34.58686880777799</v>
+        <v>32.036716744322</v>
       </c>
       <c r="S2">
-        <v>0.01345443535372594</v>
+        <v>0.01252814689587894</v>
       </c>
       <c r="T2">
-        <v>0.01345443535372594</v>
+        <v>0.01252814689587894</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>46.509849</v>
       </c>
       <c r="O3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="P3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
       <c r="Q3">
         <v>22.751181493242</v>
@@ -632,10 +632,10 @@
         <v>204.760633439178</v>
       </c>
       <c r="S3">
-        <v>0.07965273528825068</v>
+        <v>0.08007285249272299</v>
       </c>
       <c r="T3">
-        <v>0.07965273528825066</v>
+        <v>0.080072852492723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.67887366666666</v>
+        <v>18.67887366666667</v>
       </c>
       <c r="N4">
-        <v>56.036621</v>
+        <v>56.03662100000001</v>
       </c>
       <c r="O4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="P4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="Q4">
-        <v>27.41138408424021</v>
+        <v>27.41138408424023</v>
       </c>
       <c r="R4">
         <v>246.702456758162</v>
       </c>
       <c r="S4">
-        <v>0.0959682784384234</v>
+        <v>0.09647444969179807</v>
       </c>
       <c r="T4">
-        <v>0.0959682784384234</v>
+        <v>0.09647444969179807</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.618716333333333</v>
+        <v>2.425633666666667</v>
       </c>
       <c r="N5">
-        <v>7.856148999999998</v>
+        <v>7.276901000000001</v>
       </c>
       <c r="O5">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="P5">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
       <c r="Q5">
-        <v>16.48215695672777</v>
+        <v>15.26689787077222</v>
       </c>
       <c r="R5">
-        <v>148.33941261055</v>
+        <v>137.40208083695</v>
       </c>
       <c r="S5">
-        <v>0.05770464647928746</v>
+        <v>0.05373189351027467</v>
       </c>
       <c r="T5">
-        <v>0.05770464647928743</v>
+        <v>0.05373189351027467</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>46.509849</v>
       </c>
       <c r="O6">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="P6">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
       <c r="Q6">
         <v>97.57740481395001</v>
@@ -818,10 +818,10 @@
         <v>878.19664332555</v>
       </c>
       <c r="S6">
-        <v>0.3416221350117012</v>
+        <v>0.3434239731510645</v>
       </c>
       <c r="T6">
-        <v>0.3416221350117012</v>
+        <v>0.3434239731510645</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.67887366666666</v>
+        <v>18.67887366666667</v>
       </c>
       <c r="N7">
-        <v>56.036621</v>
+        <v>56.03662100000001</v>
       </c>
       <c r="O7">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="P7">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="Q7">
         <v>117.5645195434389</v>
@@ -880,10 +880,10 @@
         <v>1058.08067589095</v>
       </c>
       <c r="S7">
-        <v>0.4115977694286114</v>
+        <v>0.4137686842582608</v>
       </c>
       <c r="T7">
-        <v>0.4115977694286113</v>
+        <v>0.4137686842582607</v>
       </c>
     </row>
   </sheetData>
